--- a/datamining/final_data/topic3_candidates.xlsx
+++ b/datamining/final_data/topic3_candidates.xlsx
@@ -436,1007 +436,1007 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.41318</v>
+        <v>0.8178756666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1474</v>
+        <v>0.5625709999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.41734</v>
+        <v>0.4923561666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.18153</v>
+        <v>0.4712795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.14359</v>
+        <v>0.4593078333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1396</v>
+        <v>0.4401725</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.35332</v>
+        <v>0.4395521666666666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.21659</v>
+        <v>0.4390306666666666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02432</v>
+        <v>0.4366015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.13181</v>
+        <v>0.4124229999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.23979</v>
+        <v>0.3900585</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07922999999999999</v>
+        <v>0.369895</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.27683</v>
+        <v>0.3486261666666666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.37324</v>
+        <v>0.3413558333333334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.28457</v>
+        <v>0.3409013333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03892</v>
+        <v>0.327229</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.23966</v>
+        <v>0.3039576666666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.21018</v>
+        <v>0.3015248333333334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.29854</v>
+        <v>0.2988346666666666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.56216</v>
+        <v>0.297595</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('addie', '모형')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2846</v>
+        <v>0.276506</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.15384</v>
+        <v>0.2696333333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.14159</v>
+        <v>0.2643895000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.07596</v>
+        <v>0.2556975</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.08441</v>
+        <v>0.2546926666666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('설계', '구현')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.21212</v>
+        <v>0.2465773333333334</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.09001000000000001</v>
+        <v>0.2414626666666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.24161</v>
+        <v>0.240652</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1855</v>
+        <v>0.238641</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.11282</v>
+        <v>0.2318903333333334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.23444</v>
+        <v>0.2267208333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.25842</v>
+        <v>0.220915</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.22061</v>
+        <v>0.220056</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.36065</v>
+        <v>0.2188935</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.04233</v>
+        <v>0.2171111666666666</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.00569</v>
+        <v>0.2122701666666666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.14097</v>
+        <v>0.2056866666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.06788</v>
+        <v>0.2051188333333334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.18172</v>
+        <v>0.2022538333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.45197</v>
+        <v>0.1983538333333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.10634</v>
+        <v>0.1918855</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.23385</v>
+        <v>0.1889243333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0343</v>
+        <v>0.1802033333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.32842</v>
+        <v>0.1801151666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.43571</v>
+        <v>0.1777498333333333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.26193</v>
+        <v>0.1715591666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.22684</v>
+        <v>0.1656808333333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('통계', '유의미')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02498</v>
+        <v>0.1623123333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.07534</v>
+        <v>0.1598848333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.23294</v>
+        <v>0.1487881666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.91972</v>
+        <v>0.1479796666666667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.33173</v>
+        <v>0.141432</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('원격', '연수')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.11416</v>
+        <v>0.1377221666666667</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.08068</v>
+        <v>0.1349548333333333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.08781</v>
+        <v>0.134639</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.59839</v>
+        <v>0.1316766666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('상관', '관계')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.19563</v>
+        <v>0.1311396666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.48388</v>
+        <v>0.1211091666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.04739</v>
+        <v>0.1173491666666667</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5889</v>
+        <v>0.113558</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.50079</v>
+        <v>0.1114105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('중독', '치료')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.5454599999999999</v>
+        <v>0.111037</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.12308</v>
+        <v>0.1109616666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1462</v>
+        <v>0.110852</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.14708</v>
+        <v>0.1099416666666667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2912</v>
+        <v>0.108732</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.05398</v>
+        <v>0.1077111666666667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.35846</v>
+        <v>0.1056608333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.21831</v>
+        <v>0.1046148333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.10996</v>
+        <v>0.1045816666666667</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0272</v>
+        <v>0.09938166666666666</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.53257</v>
+        <v>0.09547549999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.35027</v>
+        <v>0.09186483333333335</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.14277</v>
+        <v>0.09025199999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.33076</v>
+        <v>0.08929183333333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.14767</v>
+        <v>0.08917566666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.12111</v>
+        <v>0.08814883333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.48311</v>
+        <v>0.07979716666666667</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.31208</v>
+        <v>0.07088066666666668</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.14461</v>
+        <v>0.06680516666666667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.26703</v>
+        <v>0.05953</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.16434</v>
+        <v>0.05489316666666666</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.52676</v>
+        <v>0.05394666666666667</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.26469</v>
+        <v>0.05167533333333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.40932</v>
+        <v>0.0429495</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.20005</v>
+        <v>0.03944683333333335</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.68365</v>
+        <v>0.03886416666666666</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.12953</v>
+        <v>0.03848283333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.06927</v>
+        <v>0.03532483333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.30325</v>
+        <v>0.03250083333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.26129</v>
+        <v>0.03129866666666667</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.42637</v>
+        <v>0.03027566666666667</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.31382</v>
+        <v>0.02419033333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.14288</v>
+        <v>0.01926766666666666</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.13919</v>
+        <v>0.01436583333333333</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.06122</v>
+        <v>0.01252033333333333</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.31043</v>
+        <v>0.008345500000000002</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.24243</v>
+        <v>0.004866999999999993</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.21568</v>
+        <v>0.001180166666666666</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.41431</v>
+        <v>6.716666666666676e-05</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic3_candidates.xlsx
+++ b/datamining/final_data/topic3_candidates.xlsx
@@ -442,961 +442,961 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('ㄴ', '형태', '의')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8178756666666667</v>
+        <v>0.5561661666666666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('연구', '제시', 'ㄴ')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5625709999999999</v>
+        <v>0.5100983333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('중', '의', '하나')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4923561666666667</v>
+        <v>0.49941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4712795</v>
+        <v>0.4812753333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4593078333333333</v>
+        <v>0.4812753333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('있', '을', '것')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4401725</v>
+        <v>0.4596471666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('학습자', '중심', '의')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4395521666666666</v>
+        <v>0.4252761666666666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('이', '같', '은')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4390306666666666</v>
+        <v>0.424705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('ㄴ', '인재', '양성')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4366015</v>
+        <v>0.4097188333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4124229999999999</v>
+        <v>0.4019991666666666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3900585</v>
+        <v>0.397412</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.369895</v>
+        <v>0.3888303333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3486261666666666</v>
+        <v>0.3671581666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('얻', '을', '수')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3413558333333334</v>
+        <v>0.3628268333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('는', '데', '있')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3409013333333333</v>
+        <v>0.353017</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.327229</v>
+        <v>0.3496708333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3039576666666667</v>
+        <v>0.3345633333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('유', '미', 'ㄴ')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3015248333333334</v>
+        <v>0.3341361666666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2988346666666666</v>
+        <v>0.3338426666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('도움', '주', 'ㄹ')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.297595</v>
+        <v>0.3308786666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.276506</v>
+        <v>0.32551</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('수준', '맞', '는')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2696333333333333</v>
+        <v>0.3217483333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('ㄹ', '필요', '있')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2643895000000001</v>
+        <v>0.3182958333333333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2556975</v>
+        <v>0.3122891666666666</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2546926666666667</v>
+        <v>0.3093423333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('ㄴ', '기초', '자료')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2465773333333334</v>
+        <v>0.3079751666666667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('기술', '의', '발달')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2414626666666667</v>
+        <v>0.3059465</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.240652</v>
+        <v>0.3009766666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('ㄴ', '관심', '높')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.238641</v>
+        <v>0.2999885</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2318903333333334</v>
+        <v>0.2942661666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2267208333333333</v>
+        <v>0.2911601666666667</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.220915</v>
+        <v>0.273244</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.220056</v>
+        <v>0.2717546666666666</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2188935</v>
+        <v>0.2706036666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2171111666666666</v>
+        <v>0.2574048333333333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2122701666666666</v>
+        <v>0.2543299999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2056866666666667</v>
+        <v>0.2468725</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2051188333333334</v>
+        <v>0.2466835</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('다는', '점', '의의')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2022538333333333</v>
+        <v>0.2463541666666667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('의', '자기', '주도')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1983538333333333</v>
+        <v>0.244574</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('것', '알', 'ㄹ')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1918855</v>
+        <v>0.2321188333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1889243333333333</v>
+        <v>0.2267723333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('찾', '을', '수')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1802033333333333</v>
+        <v>0.2254481666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1801151666666667</v>
+        <v>0.2220673333333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1777498333333333</v>
+        <v>0.211903</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1715591666666667</v>
+        <v>0.210739</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('초점', '맞추', 'ㄴ')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1656808333333333</v>
+        <v>0.208336</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1623123333333333</v>
+        <v>0.1969033333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1598848333333333</v>
+        <v>0.195761</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1487881666666667</v>
+        <v>0.1950368333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1479796666666667</v>
+        <v>0.1928615</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.141432</v>
+        <v>0.1902626666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1377221666666667</v>
+        <v>0.1869596666666667</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1349548333333333</v>
+        <v>0.1816626666666666</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.134639</v>
+        <v>0.1813608333333333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1316766666666667</v>
+        <v>0.1802625</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('예비', '교원', '의')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1311396666666667</v>
+        <v>0.1777753333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('향상', '긍정', 'ㄴ')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1211091666666667</v>
+        <v>0.1692175</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1173491666666667</v>
+        <v>0.1676153333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.113558</v>
+        <v>0.1653801666666667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('는', '영향', '분석')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1114105</v>
+        <v>0.1637068333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.111037</v>
+        <v>0.1393876666666667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('영향', '주', '는')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1109616666666667</v>
+        <v>0.1391133333333333</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.110852</v>
+        <v>0.1362408333333334</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1099416666666667</v>
+        <v>0.1354673333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.108732</v>
+        <v>0.133517</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1077111666666667</v>
+        <v>0.1333375</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1056608333333333</v>
+        <v>0.1217276666666667</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1046148333333333</v>
+        <v>0.1206183333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1045816666666667</v>
+        <v>0.1200605</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.09938166666666666</v>
+        <v>0.1173491666666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.09547549999999999</v>
+        <v>0.112154</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.09186483333333335</v>
+        <v>0.10873</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.09025199999999999</v>
+        <v>0.1040311666666667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.08929183333333333</v>
+        <v>0.09210116666666665</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.08917566666666667</v>
+        <v>0.09186483333333335</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.08814883333333333</v>
+        <v>0.09186483333333335</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.07979716666666667</v>
+        <v>0.09025199999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('그리', 'ㄴ', 'it')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.07088066666666668</v>
+        <v>0.08852450000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.06680516666666667</v>
+        <v>0.08229083333333333</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.05953</v>
+        <v>0.08205399999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('의', '스', '마')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.05489316666666666</v>
+        <v>0.08082116666666667</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.05394666666666667</v>
+        <v>0.08070716666666664</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.05167533333333333</v>
+        <v>0.07940900000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0429495</v>
+        <v>0.07802783333333332</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.03944683333333335</v>
+        <v>0.07697666666666664</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.03886416666666666</v>
+        <v>0.06229799999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.03848283333333333</v>
+        <v>0.05964883333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.03532483333333333</v>
+        <v>0.05953</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.03250083333333333</v>
+        <v>0.05832033333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.03129866666666667</v>
+        <v>0.04319650000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.03027566666666667</v>
+        <v>0.04016433333333334</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.02419033333333333</v>
+        <v>0.03643850000000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.01926766666666666</v>
+        <v>0.03520533333333334</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.01436583333333333</v>
+        <v>0.02124366666666666</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.01252033333333333</v>
+        <v>0.0177295</v>
       </c>
     </row>
     <row r="98">
@@ -1406,37 +1406,37 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.008345500000000002</v>
+        <v>0.008334666666666667</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.004866999999999993</v>
+        <v>0.005007166666666663</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.001180166666666666</v>
+        <v>0.004871166666666663</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>6.716666666666676e-05</v>
+        <v>0.004166000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic3_candidates.xlsx
+++ b/datamining/final_data/topic3_candidates.xlsx
@@ -442,1001 +442,1001 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '형태', '의')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5561661666666666</v>
+        <v>0.4812753333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('연구', '제시', 'ㄴ')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5100983333333333</v>
+        <v>0.4812753333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('중', '의', '하나')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.49941</v>
+        <v>0.4019991666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4812753333333333</v>
+        <v>0.3888303333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4812753333333333</v>
+        <v>0.3684775</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('있', '을', '것')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4596471666666667</v>
+        <v>0.3671581666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('학습자', '중심', '의')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4252761666666666</v>
+        <v>0.3496708333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('이', '같', '은')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.424705</v>
+        <v>0.3345633333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '인재', '양성')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4097188333333333</v>
+        <v>0.3338426666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4019991666666666</v>
+        <v>0.32551</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.397412</v>
+        <v>0.3122891666666666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3888303333333333</v>
+        <v>0.3093423333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3671581666666667</v>
+        <v>0.3009766666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('얻', '을', '수')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3628268333333333</v>
+        <v>0.3002283333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('는', '데', '있')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.353017</v>
+        <v>0.2999885</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3496708333333333</v>
+        <v>0.2948246666666667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('분석', '그', '결과')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3345633333333333</v>
+        <v>0.2942661666666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('유', '미', 'ㄴ')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3341361666666667</v>
+        <v>0.2935203333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3338426666666667</v>
+        <v>0.2911601666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', 'ㄹ')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3308786666666667</v>
+        <v>0.2894106666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.32551</v>
+        <v>0.2837346666666666</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('수준', '맞', '는')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3217483333333333</v>
+        <v>0.273244</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('ㄹ', '필요', '있')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3182958333333333</v>
+        <v>0.2717546666666666</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3122891666666666</v>
+        <v>0.2708873333333334</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3093423333333333</v>
+        <v>0.2706036666666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '기초', '자료')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3079751666666667</v>
+        <v>0.2702303333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('기술', '의', '발달')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3059465</v>
+        <v>0.2679288333333334</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3009766666666667</v>
+        <v>0.2574048333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '관심', '높')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2999885</v>
+        <v>0.2543299999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2942661666666667</v>
+        <v>0.2466835</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2911601666666667</v>
+        <v>0.2349515</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.273244</v>
+        <v>0.2310423333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2717546666666666</v>
+        <v>0.2267723333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2706036666666667</v>
+        <v>0.2220673333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2574048333333333</v>
+        <v>0.221955</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2543299999999999</v>
+        <v>0.211903</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2468725</v>
+        <v>0.2114666666666666</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2466835</v>
+        <v>0.210739</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('다는', '점', '의의')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2463541666666667</v>
+        <v>0.207359</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('의', '자기', '주도')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.244574</v>
+        <v>0.1984301666666667</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('것', '알', 'ㄹ')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2321188333333333</v>
+        <v>0.1984183333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2267723333333333</v>
+        <v>0.1969033333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('찾', '을', '수')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2254481666666667</v>
+        <v>0.1966433333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2220673333333333</v>
+        <v>0.195761</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.211903</v>
+        <v>0.1950368333333333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.210739</v>
+        <v>0.1902626666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추', 'ㄴ')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.208336</v>
+        <v>0.1868773333333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1969033333333333</v>
+        <v>0.1816626666666666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.195761</v>
+        <v>0.1813608333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1950368333333333</v>
+        <v>0.1802625</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1928615</v>
+        <v>0.173833</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1902626666666667</v>
+        <v>0.1676153333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1869596666666667</v>
+        <v>0.15914</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1816626666666666</v>
+        <v>0.1530535</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1813608333333333</v>
+        <v>0.1393876666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1802625</v>
+        <v>0.1362408333333334</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원', '의')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1777753333333333</v>
+        <v>0.1354673333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', 'ㄴ')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1692175</v>
+        <v>0.133517</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1676153333333333</v>
+        <v>0.1333375</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1653801666666667</v>
+        <v>0.1217276666666667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('는', '영향', '분석')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1637068333333333</v>
+        <v>0.1208271666666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1393876666666667</v>
+        <v>0.1206183333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '는')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1391133333333333</v>
+        <v>0.1200605</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1362408333333334</v>
+        <v>0.1178116666666666</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1354673333333333</v>
+        <v>0.1178013333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.133517</v>
+        <v>0.1173491666666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1333375</v>
+        <v>0.112154</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1217276666666667</v>
+        <v>0.10873</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1206183333333333</v>
+        <v>0.1054103333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1200605</v>
+        <v>0.1022713333333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1173491666666667</v>
+        <v>0.09764166666666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.112154</v>
+        <v>0.09424300000000002</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.10873</v>
+        <v>0.09210116666666665</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1040311666666667</v>
+        <v>0.09186483333333335</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.09210116666666665</v>
+        <v>0.09186483333333335</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.09186483333333335</v>
+        <v>0.09025199999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.09186483333333335</v>
+        <v>0.08852450000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.09025199999999999</v>
+        <v>0.08229083333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'ㄴ', 'it')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.08852450000000001</v>
+        <v>0.08205399999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.08229083333333333</v>
+        <v>0.08070716666666664</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.08205399999999999</v>
+        <v>0.07940900000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('의', '스', '마')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.08082116666666667</v>
+        <v>0.07802783333333332</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.08070716666666664</v>
+        <v>0.07697666666666664</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.07940900000000001</v>
+        <v>0.07161733333333332</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.07802783333333332</v>
+        <v>0.06229799999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.07697666666666664</v>
+        <v>0.05964883333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.06229799999999999</v>
+        <v>0.05953</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.05964883333333333</v>
+        <v>0.05832033333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.05953</v>
+        <v>0.04016433333333334</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.05832033333333333</v>
+        <v>0.03944083333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.04319650000000001</v>
+        <v>0.03643850000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.04016433333333334</v>
+        <v>0.03520533333333334</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.03643850000000001</v>
+        <v>0.03520533333333334</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.03520533333333334</v>
+        <v>0.02124366666666666</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('학습', '지속', '의향')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.02124366666666666</v>
+        <v>0.0177295</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0177295</v>
+        <v>0.008334666666666667</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.008334666666666667</v>
+        <v>0.005007166666666663</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.005007166666666663</v>
+        <v>0.004166000000000003</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.004871166666666663</v>
+        <v>0.004166000000000003</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.004166000000000003</v>
+        <v>-0.002206166666666672</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic3_candidates.xlsx
+++ b/datamining/final_data/topic3_candidates.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4812753333333333</v>
+        <v>0.4655166666666666</v>
       </c>
     </row>
     <row r="3">
@@ -456,27 +456,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4812753333333333</v>
+        <v>0.4655166666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4019991666666666</v>
+        <v>0.3728579166666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3888303333333333</v>
+        <v>0.3722889583333333</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3684775</v>
+        <v>0.345991875</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3671581666666667</v>
+        <v>0.3391202083333333</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3496708333333333</v>
+        <v>0.3334760416666667</v>
       </c>
     </row>
     <row r="9">
@@ -516,27 +516,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3345633333333333</v>
+        <v>0.3091991666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3338426666666667</v>
+        <v>0.3085625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.32551</v>
+        <v>0.3073683333333334</v>
       </c>
     </row>
     <row r="12">
@@ -546,87 +546,87 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3122891666666666</v>
+        <v>0.2879989583333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3093423333333333</v>
+        <v>0.2822652083333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3009766666666667</v>
+        <v>0.2821104166666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('다음', '같')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3002283333333333</v>
+        <v>0.2804658333333334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('대하', '관심', '높')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2999885</v>
+        <v>0.2787779166666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('방법', '평가', '방법')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2948246666666667</v>
+        <v>0.2783152083333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2942661666666667</v>
+        <v>0.2740454166666666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('학습', '방법', '평가')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2935203333333333</v>
+        <v>0.2735006250000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2911601666666667</v>
+        <v>0.2712383333333334</v>
       </c>
     </row>
     <row r="21">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2894106666666667</v>
+        <v>0.2672858333333333</v>
       </c>
     </row>
     <row r="22">
@@ -646,47 +646,47 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2837346666666666</v>
+        <v>0.2637508333333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.273244</v>
+        <v>0.2589241666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2717546666666666</v>
+        <v>0.2553825</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2708873333333334</v>
+        <v>0.2497933333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2706036666666667</v>
+        <v>0.2494535416666667</v>
       </c>
     </row>
     <row r="27">
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2702303333333333</v>
+        <v>0.2459704166666666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('시스템', '설계', '구현')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2679288333333334</v>
+        <v>0.239835</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2574048333333333</v>
+        <v>0.2391145833333334</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2543299999999999</v>
+        <v>0.2329085416666667</v>
       </c>
     </row>
     <row r="31">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2466835</v>
+        <v>0.2318618750000001</v>
       </c>
     </row>
     <row r="32">
@@ -746,27 +746,27 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2349515</v>
+        <v>0.219836875</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('이', '따르', '논문')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2310423333333333</v>
+        <v>0.2153629166666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2267723333333333</v>
+        <v>0.2094104166666667</v>
       </c>
     </row>
     <row r="35">
@@ -776,67 +776,67 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2220673333333333</v>
+        <v>0.2077616666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('것', '알', '수')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.221955</v>
+        <v>0.20284625</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.211903</v>
+        <v>0.19921125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('영향', '미치', '것')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2114666666666666</v>
+        <v>0.19694125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.210739</v>
+        <v>0.1886658333333333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.207359</v>
+        <v>0.18512875</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('학년', '학생', '명')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1984301666666667</v>
+        <v>0.1830385416666667</v>
       </c>
     </row>
     <row r="42">
@@ -846,117 +846,117 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1984183333333333</v>
+        <v>0.1818929166666666</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1969033333333333</v>
+        <v>0.17954625</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('있', '알', '수')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1966433333333333</v>
+        <v>0.1787183333333334</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.195761</v>
+        <v>0.1773327083333334</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1950368333333333</v>
+        <v>0.1740441666666667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1902626666666667</v>
+        <v>0.1687610416666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('그', '효과', '검증')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1868773333333333</v>
+        <v>0.1685991666666667</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1816626666666666</v>
+        <v>0.167185625</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1813608333333333</v>
+        <v>0.1613066666666667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1802625</v>
+        <v>0.1593808333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('미치', '영향', '분석')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.173833</v>
+        <v>0.1576791666666666</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1676153333333333</v>
+        <v>0.15289125</v>
       </c>
     </row>
     <row r="54">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.15914</v>
+        <v>0.150905</v>
       </c>
     </row>
     <row r="55">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1530535</v>
+        <v>0.131424375</v>
       </c>
     </row>
     <row r="56">
@@ -986,157 +986,157 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1393876666666667</v>
+        <v>0.1288670833333333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1362408333333334</v>
+        <v>0.1236916666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1354673333333333</v>
+        <v>0.12013875</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.133517</v>
+        <v>0.117786875</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1333375</v>
+        <v>0.1160720833333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1217276666666667</v>
+        <v>0.114910625</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독', '치료')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1208271666666667</v>
+        <v>0.1124579166666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1206183333333333</v>
+        <v>0.1122214583333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1200605</v>
+        <v>0.1120491666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '것')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1178116666666666</v>
+        <v>0.1099635416666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '활용')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1178013333333333</v>
+        <v>0.1098364583333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1173491666666667</v>
+        <v>0.10748</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.112154</v>
+        <v>0.10101</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.10873</v>
+        <v>0.09571458333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('전자', '책')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1054103333333333</v>
+        <v>0.09559166666666666</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1022713333333333</v>
+        <v>0.09463541666666667</v>
       </c>
     </row>
     <row r="72">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.09764166666666667</v>
+        <v>0.09407208333333333</v>
       </c>
     </row>
     <row r="73">
@@ -1156,167 +1156,167 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.09424300000000002</v>
+        <v>0.08488625000000002</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.09210116666666665</v>
+        <v>0.08227062500000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.09186483333333335</v>
+        <v>0.08153895833333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.09186483333333335</v>
+        <v>0.07813604166666667</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.09025199999999999</v>
+        <v>0.07262979166666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'it')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.08852450000000001</v>
+        <v>0.07236375</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.08229083333333333</v>
+        <v>0.06679666666666666</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.08205399999999999</v>
+        <v>0.0606835416666667</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.08070716666666664</v>
+        <v>0.0606835416666667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.07940900000000001</v>
+        <v>0.06026999999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.07802783333333332</v>
+        <v>0.054605</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.07697666666666664</v>
+        <v>0.05395104166666666</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신', '윤리')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.07161733333333332</v>
+        <v>0.05198249999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.06229799999999999</v>
+        <v>0.05169791666666666</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.05964883333333333</v>
+        <v>0.0505689583333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.05953</v>
+        <v>0.05001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.05832033333333333</v>
+        <v>0.0483958333333333</v>
       </c>
     </row>
     <row r="90">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.04016433333333334</v>
+        <v>0.03124541666666668</v>
       </c>
     </row>
     <row r="91">
@@ -1336,37 +1336,37 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.03944083333333333</v>
+        <v>0.03021604166666667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.03643850000000001</v>
+        <v>0.02848666666666667</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.03520533333333334</v>
+        <v>0.02848666666666667</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.03520533333333334</v>
+        <v>0.02782312500000001</v>
       </c>
     </row>
     <row r="95">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.02124366666666666</v>
+        <v>0.01713458333333333</v>
       </c>
     </row>
     <row r="96">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0177295</v>
+        <v>0.009911875000000001</v>
       </c>
     </row>
     <row r="97">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.008334666666666667</v>
+        <v>0.004335833333333334</v>
       </c>
     </row>
     <row r="98">
@@ -1406,37 +1406,37 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.005007166666666663</v>
+        <v>-0.0001960416666666707</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단', '통제')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.004166000000000003</v>
+        <v>-0.01031770833333334</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.004166000000000003</v>
+        <v>-0.0222975</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '중독')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.002206166666666672</v>
+        <v>-0.0222975</v>
       </c>
     </row>
   </sheetData>
